--- a/PagineHtml/8-Carta da cucina riutilizzabile e assorbente ecologica | reusable kitchen paper towels eco-friendly cleaning rolls supplier.xlsx
+++ b/PagineHtml/8-Carta da cucina riutilizzabile e assorbente ecologica | reusable kitchen paper towels eco-friendly cleaning rolls supplier.xlsx
@@ -1107,130 +1107,126 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stracci pigri stracci da cucina rotolo di tessuto monouso panno per la pulizia Scott Shop asciugamani da cucina salviette per la pulizia stracci carta da cucina</t>
+          <t>BSCI ISO9001 tessuto di bambù salviette di bambù lavabili all'ingrosso 100% rotolo di asciugamani di carta di bambù riutilizzabile da cucina</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,511 €</t>
+          <t>0,2166 €</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 rulli</t>
+          <t>Ordine minimo: 10.000 sacchi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Shanghai Meanlove Bio-Tech Co., Ltd.</t>
+          <t>Ningbo Riway Nonwovens Tech Co., Ltd.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BSCI ISO9001 tessuto di bambù salviette di bambù lavabili all'ingrosso 100% rotolo di asciugamani di carta di bambù riutilizzabile da cucina</t>
+          <t>Asciugamani da cucina riutilizzabili ecologici personalizzati con Design goffrato e assorbente per pulire il rotolo da cucina</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,2166 €</t>
+          <t>0,5197 €</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 sacchi</t>
+          <t>Ordine minimo: 1 rullo</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ningbo Riway Nonwovens Tech Co., Ltd.</t>
+          <t>Hangzhou Shengbo Cleaning Product Co., Ltd.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Asciugamani da cucina riutilizzabili ecologici personalizzati con Design goffrato e assorbente per pulire il rotolo da cucina</t>
+          <t>Asciugamani di carta velina pulita da cucina piegati riutilizzabili riciclati rotolo di asciugamani di carta da cucina ad assorbimento di olio forte usa e getta</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,5197 €</t>
+          <t>0,3465-0,4504 €</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1 rullo</t>
+          <t>Ordine minimo: 1.000 rulli</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hangzhou Shengbo Cleaning Product Co., Ltd.</t>
+          <t>Hangzhou Micker Sanitary Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Asciugamani di carta velina pulita da cucina piegati riutilizzabili riciclati rotolo di asciugamani di carta da cucina ad assorbimento di olio forte usa e getta</t>
+          <t>Asciugamano di carta riutilizzabile,</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,3465-0,4504 €</t>
+          <t>8,58 €</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 rulli</t>
+          <t>Ordine minimo: 10 parti</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hangzhou Micker Sanitary Products Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
+          <t>Zhejiang Chloven Cosmetics Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Asciugamano di carta riutilizzabile,</t>
+          <t>Carta usa e getta eco-friendly grande rotolo forte pulizia riutilizzabile straccio pigro campione di carta da cucina</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8,58 €</t>
+          <t>0,0867-0,2599 €</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 parti</t>
+          <t>Ordine minimo: 20.000 parti</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Zhejiang Chloven Cosmetics Co., Ltd.</t>
+          <t>Hangzhou Lin'an Sanxin Cleaning Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1238,62 +1234,66 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Carta usa e getta eco-friendly grande rotolo forte pulizia riutilizzabile straccio pigro campione di carta da cucina</t>
+          <t>Pasta di legno vergine di alta qualità usa e getta carta da cucina asciugamani morbidi e assorbenti lavabili Private Label per uso alberghiero</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,0867-0,2599 €</t>
+          <t>0,13-0,2079 €</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ordine minimo: 20.000 parti</t>
+          <t>Ordine minimo: 12.000 sacchi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hangzhou Lin'an Sanxin Cleaning Products Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>Hebei Yihoucheng Commodity Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pasta di legno vergine di alta qualità usa e getta carta da cucina asciugamani morbidi e assorbenti lavabili Private Label per uso alberghiero</t>
+          <t>Pulizia della cucina Del Prodotto Senza Carta Tovagliolo Di Bambù Organico Unpaper Asciugamani Riutilizzabili</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,13-0,2079 €</t>
+          <t>0,3292 €</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ordine minimo: 12.000 sacchi</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hebei Yihoucheng Commodity Co., Ltd.</t>
+          <t>Yiwu Yozeal Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pulizia della cucina Del Prodotto Senza Carta Tovagliolo Di Bambù Organico Unpaper Asciugamani Riutilizzabili</t>
+          <t>Logo personalizzato cucina asciugamani di carta riutilizzabili lavabili rotolo spesso due strati Ultra assorbente asciugamani in cotone organico senza carta</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,3292 €</t>
+          <t>0,3898 €</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Yiwu Yozeal Commodity Co., Ltd.</t>
+          <t>Yiwu Xinyao Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
